--- a/data-x.xlsx
+++ b/data-x.xlsx
@@ -4,158 +4,187 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="set_db" sheetId="1" r:id="rId1"/>
     <sheet name="set_file" sheetId="2" r:id="rId2"/>
     <sheet name="set_http" sheetId="3" r:id="rId3"/>
-    <sheet name="check_db" sheetId="4" r:id="rId4"/>
+    <sheet name="set-redis" sheetId="5" r:id="rId4"/>
+    <sheet name="check_db" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.142.128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.142.128:8266/inmobiBidding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket_timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode_responses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unix_socket_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>auth_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.142.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO `auth_user` (`id`, `password`, `last_login`, `is_superuser`, `username`, `first_name`, `last_name`, `email`, `is_staff`, `is_active`, `date_joined`, `pwd`) VALUES (0,'pbkdf2_sha256$100000$vqJ8ZsmJHWre$3rw7m4AUj4LCDxGe+sIYsQGjSNJAOyHX5Vj0UWxcOBo=','2019-10-09 16:26:32.279082',0,'yzl','','','972765230@qq.com',1,1,'2019-10-09 14:23:47.252467','MXFhenhzdzI='),(0,'pbkdf2_sha256$100000$GXBNcXljxONp$1UbVRPXOXqpl4It2+sfvH/nCXDjRB2MlpYTDgBWYRHU=','2019-10-09 16:27:53.659876',0,'xiaocaix','','','',0,1,'2019-10-09 16:24:45.093608','eGlhb2NhaXhpYW9jYWk=');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~/test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~/test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>write_way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expect_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.142.128:8266/inmobiBidding</t>
+    <t>dsp_configs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO `dsp_configs` (`id`, `name`, `status`, `type`, `balance`, `qps`, `company`, `contact`, `phone`, `bidding_url`, `create_time`, `update_time`) VALUES (0,'meizu',0,0,0,0,'meizu','123','456','etcd://127.0.0.1:2379/dsp_pe','2019-09-03 01:57:14','2019-09-03 01:57:14');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adx_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adx_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name,bidding_url FROM `dsp_configs`;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +347,46 @@
     }
 }
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\sourceCode\RBT_TEST_PLANT\activeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\sourceCode\RBT_TEST_PLANT\activeUnitIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\sourceCode\RBT_TEST_PLANT\getTagsByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/webroot/sgr/rest/api/unit/activeUnitIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/webroot/sgr/rest/api/unit/activeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/webroot/dmp/api/tag/getTagsByUserId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,66 +753,67 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="124.875" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>3306</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -755,72 +825,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="3" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="6" max="6" width="72.375" customWidth="1"/>
+    <col min="8" max="8" width="64.75" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -828,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,33 +932,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -885,48 +973,116 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="81.625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
     <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data-x.xlsx
+++ b/data-x.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF210FEA-9E5A-4DE9-AAE5-C59F6A824403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set_db" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,35 +57,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.142.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,308 +89,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket_timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode_responses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unix_socket_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>src_file</t>
+  </si>
+  <si>
     <t>write_way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.142.128:8266/inmobiBidding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socket_timeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connection_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decode_responses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unix_socket_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsp_configs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO `dsp_configs` (`id`, `name`, `status`, `type`, `balance`, `qps`, `company`, `contact`, `phone`, `bidding_url`, `create_time`, `update_time`) VALUES (0,'meizu',0,0,0,0,'meizu','123','456','etcd://127.0.0.1:2379/dsp_pe','2019-09-03 01:57:14','2019-09-03 01:57:14');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adx_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adx_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT name,bidding_url FROM `dsp_configs`;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-        "Host": "192.168.142.128",
-        "Content-Type": "Content-Type: application/json"
-         }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "trace_units": [2003,2004,2005,2006,2007,2023,2008,2024,2010,2027,2012,2028],
-    "app": {
-        "bundle": "909351158",
-        "cat": [
-            "IAB10-2",
-            "IAB1",
-            "IAB19-29",
-            "IAB9-30",
-            "IAB6"
-        ],
-        "ext": {
-            "bundle": "com.outfit7.talkingAngela",
-            "fs": "1"
-        },
-        "id": "bec616cfc2734f2fa88d81d08f9eb7b5",
-        "name": "My Talking Angela",
-        "storeurl": "http://itunes.apple.com/app/id909351158?mt=8"
-    },
-    "at": 2,
-    "badv": [
-        "paps.com",
-        "fhs.com",
-        "www.affairalert.com",
-        "www.ewank.com"
-    ],
-    "bcat": [
-        "IAB7-27",
-        "IAB7-29",
-        "IAB7-28",
-        "IAB7-22"
-    ],
-    "device": {
-        "carrier": "China Mobile",
-        "connectiontype": 2,
-        "devicetype": 5,
-        "dnt": 0,
-        "dpidmd5": "f250f794d8df011998e8b48e817570b7",
-        "dpidsha1": "a3600e82956b227038c8cf0652ddd091a4236cd7",
-        "ext": {
-            "idfa": "249D9EEF-9DC3-4X61-9328-DFA9288B8B4C",
-            "idfamd5": "f250f794d8df011998e8b48e817570b7",
-            "idfasha1": "a3600e82956b227038c8cf0652ddd091a4236cd7"
-        },
-        "geo": {
-            "city": "BEIJING",
-            "country": "CHN",
-            "lat": 25.037,
-            "lon": 102.706,
-            "type": 1
-        },
-        "ifa": "249D9EEF-9DC3-4X61-9328-DFA9288B8B4C",
-        "ip": "183.224.95.126",
-        "language": "cn",
-        "lmt": 0,
-        "make": "Apple",
-        "model": "iPad",
-        "os": "iOS",
-        "osv": "8.4",
-        "pxratio": 2.0,
-        "ua": "Mozilla/5.0 (iPad; CPU OS 8_4 like Mac OS X) AppleWebKit/600.1.4 (KHTML, like Gecko) Mobile / 12 H143 "
-    },
-    "id": "8bbe9850-0151-1000-c9a6-3eeeaad3f494",
-    "imp": [
-        {
-            "banner": {
-                "api": [
-                    3,
-                    5
-                ],
-                "battr": [
-                    1,
-                    2,
-                    3,
-                    4,
-                    5,
-                    6
-                ],
-                "format": [
-                    {
-                        "h": 50,
-                        "w": 320
-                    },
-                    {
-                        "h": 50,
-                        "w": 300
-                    },
-                    {
-                        "h": 100,
-                        "w": 600
-                    },
-                    {
-                        "h": 100,
-                        "w": 640
-                    }
-                ],
-                "h": 50,
-                "id": "1",
-                "mimes": [
-                    "image/jpeg",
-                    "image/gif",
-                    "image/png"
-                ],
-                "pos": 1,
-                "w": 320
-            },
-            "bidfloor": 0.07,
-            "bidfloorcur": "CNY",
-            "displaymanager": "inmobi_sdk",
-            "ext": {
-                "dpl": true,
-                "dplRecommended": true,
-                "viewabilityvendors": [
-                    "moat.com"
-                ]
-            },
-            "id": "1",
-            "instl": 0,
-            "pmp": {
-                "deals": [
-                    {
-                        "at": 1,
-                        "bidfloor": 15.0,
-                        "bidfloorcur": "CNY",
-                        "id": "123456"
-                    },
-                    {
-                        "at": 2,
-                        "bidfloor": 10.0,
-                        "bidfloorcur": "CNY",
-                        "id": "788910"
-                    }
-                ],
-                "private_auction": 0
-            },
-            "secure": 1
-        }
-    ],
-    "regs": {
-        "coppa": 0
-    },
-    "tmax": 200,
-    "user": {
-        "buyerid": "249D9EEF-9DC3-4X61-9328-DFA9288B8B4C",
-        "ext": {
-            "ageId": 3
-        },
-        "gender": "F",
-        "id": "249D9EEF-9DC3-4X61-9328-DFA9288B8B4C"
-    }
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\sourceCode\RBT_TEST_PLANT\activeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\sourceCode\RBT_TEST_PLANT\activeUnitIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\sourceCode\RBT_TEST_PLANT\getTagsByUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/webroot/sgr/rest/api/unit/activeUnitIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/webroot/sgr/rest/api/unit/activeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/webroot/dmp/api/tag/getTagsByUserId</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,12 +180,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,20 +204,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -464,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -539,6 +303,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -574,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -749,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,26 +594,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>3306</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,19 +602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="3" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="72.375" customWidth="1"/>
-    <col min="8" max="8" width="64.75" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
@@ -844,65 +622,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -913,11 +686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,47 +705,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -987,34 +743,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1025,11 +781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,21 +824,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
